--- a/biology/Botanique/Jardin_suspendu/Jardin_suspendu.xlsx
+++ b/biology/Botanique/Jardin_suspendu/Jardin_suspendu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jardin suspendu est un jardin disposé dans un lieu insolite et exceptionnel et dont le développement aurait été irréalisable sans des techniques humaines réfléchies. Les jardins de Babylone en sont un exemple célèbre. 
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'expression fait référence aux jardins suspendus de Babylone qui se situeraient au centre de l'Irak actuel. Ils étaient considérés dans l'Antiquité comme l'une des Sept Merveilles du monde. Selon une hypothèse de Stephanie Dalley, ces jardins suspendus ne se situeraient pas à Babylone mais à Ninive, cité rivale de Babylone et capitale de l'Assyrie[1]. Ces jardins suspendus assyriens seraient alimentés en eau grâce à des chadoufs. Strabon décrit le système d'acheminement de l'eau des jardins suspendus de Babylone comme un système différent de celui des chadoufs de Ninive. Il serait question d'un système de canaux très développé se joignant à une utilisation des vis d'Archimède, actionnées par les humains en continu. Cette représentation rejoint également celle de Philon, décrivant un système de conduits et de spirales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'expression fait référence aux jardins suspendus de Babylone qui se situeraient au centre de l'Irak actuel. Ils étaient considérés dans l'Antiquité comme l'une des Sept Merveilles du monde. Selon une hypothèse de Stephanie Dalley, ces jardins suspendus ne se situeraient pas à Babylone mais à Ninive, cité rivale de Babylone et capitale de l'Assyrie. Ces jardins suspendus assyriens seraient alimentés en eau grâce à des chadoufs. Strabon décrit le système d'acheminement de l'eau des jardins suspendus de Babylone comme un système différent de celui des chadoufs de Ninive. Il serait question d'un système de canaux très développé se joignant à une utilisation des vis d'Archimède, actionnées par les humains en continu. Cette représentation rejoint également celle de Philon, décrivant un système de conduits et de spirales.
 De nos jours, elle s'applique plutôt à des jardins aménagés sur des balcons ou sur les toits en terrasse des immeubles urbains.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Technique horticole d'aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Par extension, on peut considérer qu'une série de pots et de bacs de plusieurs dimensions exposés à des hauteurs différentes dans un jardin constitue un jardin suspendu, sous-entendant la notion d’un travail de la verticalité.
 On n’oubliera pas les plantes grimpantes qui répondent bien à ces critères puisque leur développement utilise naturellement la verticalité et propose une partie de leur végétation suspendue à des supports.
@@ -583,8 +599,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Renaissance
-Celui de la Torre Guinigi de Lucques en Toscane (Italie).</t>
+          <t>Renaissance</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Celui de la Torre Guinigi de Lucques en Toscane (Italie).</t>
         </is>
       </c>
     </row>
